--- a/개인1/데이터/가공후.xlsx
+++ b/개인1/데이터/가공후.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_7A91B4CC401EC3ACD1E0D447E4CB5EFF4EA42EE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0116F924-555B-43B0-8E7F-859A40042ED2}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_7A91B4CC401EC3ACD1E0D447E4CB5EFF4EA42EE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E859268-45B6-4E69-972C-AE314DEACAEE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="46">
   <si>
     <t>Press Freedom Edition</t>
   </si>
@@ -8454,8 +8454,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.67578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8470,6 +8470,7 @@
     <col min="8" max="8" width="11.8671875" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="8.8984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.01171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8544,7 +8545,9 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
-      <c r="M2" s="18"/>
+      <c r="M2" s="18">
+        <v>0</v>
+      </c>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
@@ -8591,7 +8594,9 @@
       <c r="L3" s="24">
         <v>0</v>
       </c>
-      <c r="M3" s="18"/>
+      <c r="M3" s="18">
+        <v>1</v>
+      </c>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
@@ -8624,7 +8629,9 @@
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
       <c r="L4" s="23"/>
-      <c r="M4" s="18"/>
+      <c r="M4" s="18">
+        <v>2</v>
+      </c>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
@@ -8657,7 +8664,9 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" s="23"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="18">
+        <v>3</v>
+      </c>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -8692,7 +8701,9 @@
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
-      <c r="M6" s="18"/>
+      <c r="M6" s="18">
+        <v>4</v>
+      </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
@@ -8739,7 +8750,9 @@
       <c r="L7" s="34">
         <v>0</v>
       </c>
-      <c r="M7" s="18"/>
+      <c r="M7" s="18">
+        <v>5</v>
+      </c>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
@@ -8772,7 +8785,9 @@
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="18">
+        <v>6</v>
+      </c>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
@@ -8815,7 +8830,9 @@
       <c r="L9" s="21">
         <v>19</v>
       </c>
-      <c r="M9" s="18"/>
+      <c r="M9" s="18">
+        <v>7</v>
+      </c>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
@@ -8848,7 +8865,9 @@
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
-      <c r="M10" s="18"/>
+      <c r="M10" s="18">
+        <v>8</v>
+      </c>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -8881,7 +8900,9 @@
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
-      <c r="M11" s="18"/>
+      <c r="M11" s="18">
+        <v>9</v>
+      </c>
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
@@ -8914,7 +8935,9 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="18"/>
+      <c r="M12" s="18">
+        <v>10</v>
+      </c>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
@@ -8947,7 +8970,9 @@
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="18"/>
+      <c r="M13" s="18">
+        <v>11</v>
+      </c>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
@@ -8990,7 +9015,9 @@
       <c r="L14" s="21">
         <v>22</v>
       </c>
-      <c r="M14" s="18"/>
+      <c r="M14" s="18">
+        <v>12</v>
+      </c>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
@@ -9023,7 +9050,9 @@
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="18"/>
+      <c r="M15" s="18">
+        <v>13</v>
+      </c>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
@@ -9058,7 +9087,9 @@
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="18"/>
+      <c r="M16" s="18">
+        <v>14</v>
+      </c>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
@@ -9101,7 +9132,9 @@
       <c r="L17" s="21">
         <v>11</v>
       </c>
-      <c r="M17" s="18"/>
+      <c r="M17" s="18">
+        <v>15</v>
+      </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
@@ -9134,7 +9167,9 @@
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
-      <c r="M18" s="18"/>
+      <c r="M18" s="18">
+        <v>16</v>
+      </c>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
@@ -9167,7 +9202,9 @@
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
-      <c r="M19" s="18"/>
+      <c r="M19" s="18">
+        <v>17</v>
+      </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
@@ -9200,7 +9237,9 @@
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
-      <c r="M20" s="18"/>
+      <c r="M20" s="18">
+        <v>18</v>
+      </c>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
@@ -9245,7 +9284,9 @@
       <c r="L21" s="21">
         <v>4</v>
       </c>
-      <c r="M21" s="18"/>
+      <c r="M21" s="18">
+        <v>19</v>
+      </c>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
@@ -9280,7 +9321,9 @@
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
-      <c r="M22" s="18"/>
+      <c r="M22" s="18">
+        <v>20</v>
+      </c>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
@@ -9319,7 +9362,9 @@
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
-      <c r="M23" s="18"/>
+      <c r="M23" s="18">
+        <v>21</v>
+      </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
@@ -9364,7 +9409,9 @@
       <c r="L24" s="21">
         <v>9</v>
       </c>
-      <c r="M24" s="18"/>
+      <c r="M24" s="18">
+        <v>22</v>
+      </c>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
@@ -9399,7 +9446,9 @@
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
-      <c r="M25" s="18"/>
+      <c r="M25" s="18">
+        <v>23</v>
+      </c>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
@@ -9434,7 +9483,9 @@
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
-      <c r="M26" s="18"/>
+      <c r="M26" s="18">
+        <v>24</v>
+      </c>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
@@ -9469,7 +9520,9 @@
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
-      <c r="M27" s="18"/>
+      <c r="M27" s="18">
+        <v>25</v>
+      </c>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
@@ -9518,7 +9571,9 @@
       <c r="L28" s="21">
         <v>21</v>
       </c>
-      <c r="M28" s="18"/>
+      <c r="M28" s="18">
+        <v>26</v>
+      </c>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
@@ -9555,7 +9610,9 @@
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
-      <c r="M29" s="18"/>
+      <c r="M29" s="18">
+        <v>27</v>
+      </c>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
@@ -9592,7 +9649,9 @@
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
-      <c r="M30" s="18"/>
+      <c r="M30" s="18">
+        <v>28</v>
+      </c>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
@@ -9629,7 +9688,9 @@
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
-      <c r="M31" s="18"/>
+      <c r="M31" s="18">
+        <v>29</v>
+      </c>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
@@ -9676,7 +9737,9 @@
       <c r="L32" s="21">
         <v>15</v>
       </c>
-      <c r="M32" s="18"/>
+      <c r="M32" s="18">
+        <v>30</v>
+      </c>
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
@@ -9717,7 +9780,9 @@
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
-      <c r="M33" s="18"/>
+      <c r="M33" s="18">
+        <v>31</v>
+      </c>
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
@@ -9754,7 +9819,9 @@
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
-      <c r="M34" s="18"/>
+      <c r="M34" s="18">
+        <v>32</v>
+      </c>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
@@ -9791,7 +9858,9 @@
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
-      <c r="M35" s="18"/>
+      <c r="M35" s="18">
+        <v>33</v>
+      </c>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
@@ -9838,7 +9907,9 @@
       <c r="L36" s="21">
         <v>5</v>
       </c>
-      <c r="M36" s="18"/>
+      <c r="M36" s="18">
+        <v>34</v>
+      </c>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
@@ -9875,7 +9946,9 @@
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
-      <c r="M37" s="18"/>
+      <c r="M37" s="18">
+        <v>35</v>
+      </c>
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
@@ -9916,7 +9989,9 @@
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
-      <c r="M38" s="18"/>
+      <c r="M38" s="18">
+        <v>36</v>
+      </c>
       <c r="N38" s="19"/>
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
@@ -9953,7 +10028,9 @@
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
-      <c r="M39" s="18"/>
+      <c r="M39" s="18">
+        <v>37</v>
+      </c>
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
@@ -10000,7 +10077,9 @@
       <c r="L40" s="27">
         <v>2</v>
       </c>
-      <c r="M40" s="18"/>
+      <c r="M40" s="18">
+        <v>38</v>
+      </c>
       <c r="N40" s="19"/>
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
@@ -10037,7 +10116,9 @@
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
-      <c r="M41" s="18"/>
+      <c r="M41" s="18">
+        <v>39</v>
+      </c>
       <c r="N41" s="19"/>
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
@@ -10074,7 +10155,9 @@
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
-      <c r="M42" s="18"/>
+      <c r="M42" s="18">
+        <v>40</v>
+      </c>
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
@@ -10115,7 +10198,9 @@
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
-      <c r="M43" s="18"/>
+      <c r="M43" s="18">
+        <v>41</v>
+      </c>
       <c r="N43" s="19"/>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
@@ -10162,7 +10247,9 @@
       <c r="L44" s="27">
         <v>25</v>
       </c>
-      <c r="M44" s="18"/>
+      <c r="M44" s="18">
+        <v>42</v>
+      </c>
       <c r="N44" s="19"/>
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
@@ -10199,7 +10286,9 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="18"/>
+      <c r="M45" s="18">
+        <v>43</v>
+      </c>
       <c r="N45" s="19"/>
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
@@ -10236,7 +10325,9 @@
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="18"/>
+      <c r="M46" s="18">
+        <v>44</v>
+      </c>
       <c r="N46" s="19"/>
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
@@ -10273,7 +10364,9 @@
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
-      <c r="M47" s="18"/>
+      <c r="M47" s="18">
+        <v>45</v>
+      </c>
       <c r="N47" s="19"/>
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
@@ -10324,7 +10417,9 @@
       <c r="L48" s="21">
         <v>3</v>
       </c>
-      <c r="M48" s="18"/>
+      <c r="M48" s="18">
+        <v>46</v>
+      </c>
       <c r="N48" s="19"/>
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
@@ -10361,7 +10456,9 @@
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
-      <c r="M49" s="18"/>
+      <c r="M49" s="18">
+        <v>47</v>
+      </c>
       <c r="N49" s="19"/>
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
@@ -10398,7 +10495,9 @@
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
-      <c r="M50" s="18"/>
+      <c r="M50" s="18">
+        <v>48</v>
+      </c>
       <c r="N50" s="19"/>
       <c r="O50" s="19"/>
       <c r="P50" s="19"/>
@@ -10435,7 +10534,9 @@
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
-      <c r="M51" s="18"/>
+      <c r="M51" s="18">
+        <v>49</v>
+      </c>
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
@@ -10482,7 +10583,9 @@
       <c r="L52" s="21">
         <v>11</v>
       </c>
-      <c r="M52" s="18"/>
+      <c r="M52" s="18">
+        <v>50</v>
+      </c>
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
       <c r="P52" s="19"/>
@@ -10521,7 +10624,9 @@
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
-      <c r="M53" s="18"/>
+      <c r="M53" s="18">
+        <v>51</v>
+      </c>
       <c r="N53" s="19"/>
       <c r="O53" s="19"/>
       <c r="P53" s="19"/>
@@ -10556,7 +10661,9 @@
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
-      <c r="M54" s="18"/>
+      <c r="M54" s="18">
+        <v>52</v>
+      </c>
       <c r="N54" s="19"/>
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
@@ -10591,7 +10698,9 @@
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
-      <c r="M55" s="18"/>
+      <c r="M55" s="18">
+        <v>53</v>
+      </c>
       <c r="N55" s="19"/>
       <c r="O55" s="19"/>
       <c r="P55" s="19"/>
@@ -10636,7 +10745,9 @@
       <c r="L56" s="21">
         <v>5</v>
       </c>
-      <c r="M56" s="18"/>
+      <c r="M56" s="18">
+        <v>54</v>
+      </c>
       <c r="N56" s="19"/>
       <c r="O56" s="19"/>
       <c r="P56" s="19"/>
@@ -10672,7 +10783,9 @@
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
-      <c r="M57" s="18"/>
+      <c r="M57" s="18">
+        <v>55</v>
+      </c>
       <c r="N57" s="19"/>
       <c r="O57" s="19"/>
       <c r="P57" s="19"/>
@@ -10712,7 +10825,9 @@
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
-      <c r="M58" s="18"/>
+      <c r="M58" s="18">
+        <v>56</v>
+      </c>
       <c r="N58" s="19"/>
       <c r="O58" s="19"/>
       <c r="P58" s="19"/>
@@ -10748,7 +10863,9 @@
       <c r="J59" s="30"/>
       <c r="K59" s="30"/>
       <c r="L59" s="30"/>
-      <c r="M59" s="18"/>
+      <c r="M59" s="18">
+        <v>57</v>
+      </c>
       <c r="N59" s="19"/>
       <c r="O59" s="19"/>
       <c r="P59" s="19"/>
@@ -10780,7 +10897,9 @@
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
-      <c r="M60" s="18"/>
+      <c r="M60" s="18">
+        <v>58</v>
+      </c>
       <c r="N60" s="19"/>
       <c r="O60" s="19"/>
       <c r="P60" s="19"/>
@@ -10812,7 +10931,9 @@
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
-      <c r="M61" s="18"/>
+      <c r="M61" s="18">
+        <v>59</v>
+      </c>
       <c r="N61" s="19"/>
       <c r="O61" s="19"/>
       <c r="P61" s="19"/>
@@ -10841,7 +10962,9 @@
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
-      <c r="M62" s="18"/>
+      <c r="M62" s="18">
+        <v>60</v>
+      </c>
       <c r="N62" s="19"/>
       <c r="O62" s="19"/>
       <c r="P62" s="19"/>
@@ -10874,7 +10997,9 @@
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
-      <c r="M63" s="18"/>
+      <c r="M63" s="18">
+        <v>61</v>
+      </c>
       <c r="N63" s="19"/>
       <c r="O63" s="19"/>
       <c r="P63" s="19"/>
